--- a/HHS Operations/Templates/Template_ProjectTracker.xlsx
+++ b/HHS Operations/Templates/Template_ProjectTracker.xlsx
@@ -25,13 +25,13 @@
     <t xml:space="preserve">HHS Job Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Wire Center</t>
+    <t xml:space="preserve">Customer PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">Hub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infinium Number</t>
   </si>
   <si>
     <t xml:space="preserve">Month:</t>
@@ -548,7 +548,7 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/HHS Operations/Templates/Template_ProjectTracker.xlsx
+++ b/HHS Operations/Templates/Template_ProjectTracker.xlsx
@@ -1,32 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eemery\Programs\GitHub\hhs-automate\HHS Operations\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E8C469-212A-4906-850C-150DD048261A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily" sheetId="1" r:id="rId1"/>
+    <sheet name="Daily" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -37,130 +22,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="115">
   <si>
-    <t>HHS Job Number</t>
-  </si>
-  <si>
-    <t>Customer PO</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Hub</t>
-  </si>
-  <si>
-    <t>Month:</t>
-  </si>
-  <si>
-    <t>Day:</t>
-  </si>
-  <si>
-    <t>Product Type</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Access Terminal placement (Aerial/Ground)</t>
-  </si>
-  <si>
-    <t>Each</t>
-  </si>
-  <si>
-    <t>Aerial Drop Rearrangement</t>
-  </si>
-  <si>
-    <t>Bore (incl. soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Ft</t>
-  </si>
-  <si>
-    <t>Bore Cobble (incl. soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Bore Rock (incl. soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Concrete  Native Backfill (Pour; Cut and Remove)</t>
-  </si>
-  <si>
-    <t>SFT</t>
-  </si>
-  <si>
-    <t>Conduit/Innerduct placement  (up to 2")</t>
-  </si>
-  <si>
-    <t>Conduit/Innerduct placement (larger then 2"-4")</t>
+    <t xml:space="preserve">HHS Job Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer PO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Terminal placement (Aerial/Ground)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aerial Drop Rearrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bore (incl. soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bore Cobble (incl. soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bore Rock (incl. soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete  Native Backfill (Pour; Cut and Remove)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduit/Innerduct placement  (up to 2")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduit/Innerduct placement (larger then 2"-4")</t>
   </si>
   <si>
     <t xml:space="preserve">Coordination &amp; Plugging/Sealing ducts in CO </t>
   </si>
   <si>
-    <t>Delashing existing cable</t>
+    <t xml:space="preserve">Delashing existing cable</t>
   </si>
   <si>
     <t xml:space="preserve">De-ribbonizing fiber cable </t>
   </si>
   <si>
-    <t>Per Dozen</t>
-  </si>
-  <si>
-    <t>Dig &amp; Fix conduit (incl. soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Duct Cut (typical 2 manhours)</t>
-  </si>
-  <si>
-    <t>FDC/FDH placement (Aerial) Field unit</t>
-  </si>
-  <si>
-    <t>FDC/FDH placement (Pad Mount) Field unit</t>
+    <t xml:space="preserve">Per Dozen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dig &amp; Fix conduit (incl. soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duct Cut (typical 2 manhours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDC/FDH placement (Aerial) Field unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FDC/FDH placement (Pad Mount) Field unit</t>
   </si>
   <si>
     <t xml:space="preserve">Fiber Cable Placement (Aerial - 12-288) </t>
   </si>
   <si>
-    <t>Fiber Cable Placement (Aerial - 432-864)</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (Buried/Direct - 12-288)</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (Buried/Direct - 432-864)</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (UG/Existing Duct - 12-288)incl rod/prove</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (UG/Existing Duct - 432-864)incl rod/prove</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (UG/New Duct - 12-288)</t>
-  </si>
-  <si>
-    <t>Fiber Cable Placement (UG/New Duct - 432-864)</t>
-  </si>
-  <si>
-    <t>Flagging</t>
-  </si>
-  <si>
-    <t>per day</t>
-  </si>
-  <si>
-    <t>Ground Grid</t>
-  </si>
-  <si>
-    <t>each</t>
-  </si>
-  <si>
-    <t>Hourly unit (most be agreed prior to usage)</t>
-  </si>
-  <si>
-    <t>Dollars</t>
+    <t xml:space="preserve">Fiber Cable Placement (Aerial - 432-864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (Buried/Direct - 12-288)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (Buried/Direct - 432-864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (UG/Existing Duct - 12-288)incl rod/prove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (UG/Existing Duct - 432-864)incl rod/prove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (UG/New Duct - 12-288)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiber Cable Placement (UG/New Duct - 432-864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly unit (most be agreed prior to usage)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dollars</t>
   </si>
   <si>
     <t xml:space="preserve">Install squirrel guard </t>
@@ -169,49 +154,49 @@
     <t xml:space="preserve">Lashing new fiber cable  </t>
   </si>
   <si>
-    <t>Loose tube testing(C.O. to HUB)</t>
-  </si>
-  <si>
-    <t>Each Fiber</t>
-  </si>
-  <si>
-    <t>Make Ready (Delashing / Relashing)</t>
-  </si>
-  <si>
-    <t>Make Ready (Disposal of Pole haul off)</t>
-  </si>
-  <si>
-    <t>Make Ready (Known, Identified &amp; Listed before STARTING)</t>
-  </si>
-  <si>
-    <t>Make Ready (Placing New Pole)</t>
-  </si>
-  <si>
-    <t>Make Ready (Placing/Replacing Anchor)</t>
-  </si>
-  <si>
-    <t>Make Ready (Quoted separately; Added when required)</t>
-  </si>
-  <si>
-    <t>(cost + 10%)</t>
-  </si>
-  <si>
-    <t>Make Ready (Rearranging bare strand)</t>
-  </si>
-  <si>
-    <t>Make Ready (Rearranging Cable)</t>
-  </si>
-  <si>
-    <t>Make Ready (Rearranging cables)</t>
-  </si>
-  <si>
-    <t>Make Ready (Replacing bare strand)</t>
-  </si>
-  <si>
-    <t>Make Ready (Replacing Cable)</t>
-  </si>
-  <si>
-    <t>Make Ready (Replacing Cross Arms)</t>
+    <t xml:space="preserve">Loose tube testing(C.O. to HUB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Delashing / Relashing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Disposal of Pole haul off)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Known, Identified &amp; Listed before STARTING)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Placing New Pole)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Placing/Replacing Anchor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Quoted separately; Added when required)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(cost + 10%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Rearranging bare strand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Rearranging Cable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Rearranging cables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Replacing bare strand)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Replacing Cable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Ready (Replacing Cross Arms)</t>
   </si>
   <si>
     <t xml:space="preserve">Micro Trench .5 -2.0" width (typically ~12-16 in depth) includes placement of micro duct and labor for backfill agents  </t>
@@ -220,16 +205,16 @@
     <t xml:space="preserve">Micro Trench material cost bonding agent (pass through) </t>
   </si>
   <si>
-    <t>MPU testing (FSAI to MPU)</t>
-  </si>
-  <si>
-    <t>each port</t>
-  </si>
-  <si>
-    <t>Overlashing new fiber cable</t>
-  </si>
-  <si>
-    <t>Permit Fees</t>
+    <t xml:space="preserve">MPU testing (FSAI to MPU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">each port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overlashing new fiber cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permit Fees</t>
   </si>
   <si>
     <t xml:space="preserve">Each </t>
@@ -238,10 +223,10 @@
     <t xml:space="preserve">Place Pedestal </t>
   </si>
   <si>
-    <t>Plow greater then 2" to 4" conduit (incl. soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Plow up to 2" conduit (incl. soft surface restoration)</t>
+    <t xml:space="preserve">Plow greater then 2" to 4" conduit (incl. soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plow up to 2" conduit (incl. soft surface restoration)</t>
   </si>
   <si>
     <t xml:space="preserve">Pneumatic boring (up to 2.0") </t>
@@ -250,28 +235,28 @@
     <t xml:space="preserve">Pole placing  </t>
   </si>
   <si>
-    <t>Power feed - transformer</t>
-  </si>
-  <si>
-    <t>Pull String</t>
+    <t xml:space="preserve">Power feed - transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pull String</t>
   </si>
   <si>
     <t xml:space="preserve">Remove cable (Aerial) greater then 300 pair </t>
   </si>
   <si>
-    <t>Remove cable (Aerial) up to 300 pair</t>
-  </si>
-  <si>
-    <t>Remove cable (underground) greater then 900 pair</t>
-  </si>
-  <si>
-    <t>Remove cable (underground) up to 900 pair</t>
-  </si>
-  <si>
-    <t>Remove drop (Aerial)</t>
-  </si>
-  <si>
-    <t>Remove drop (underground)</t>
+    <t xml:space="preserve">Remove cable (Aerial) up to 300 pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove cable (underground) greater then 900 pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove cable (underground) up to 900 pair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove drop (Aerial)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove drop (underground)</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Pedestal in conjunction with other work </t>
@@ -280,76 +265,76 @@
     <t xml:space="preserve">Re-tention squirrel guard </t>
   </si>
   <si>
-    <t>Ribbon Testing</t>
-  </si>
-  <si>
-    <t>Each Ribbon</t>
-  </si>
-  <si>
-    <t>Riser</t>
+    <t xml:space="preserve">Ribbon Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each Ribbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riser</t>
   </si>
   <si>
     <t xml:space="preserve">Riser (or) Sweep </t>
   </si>
   <si>
-    <t>Rod/Prove</t>
-  </si>
-  <si>
-    <t>Snow Shoe placement</t>
-  </si>
-  <si>
-    <t>Splice Case placement (Aerial - 12)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (Aerial - 24)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (Aerial - 48)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (Aerial - 96-864)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (UG/V - 12)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (UG/V - 24)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (UG/V - 48)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (UG/Vault - 1728)</t>
-  </si>
-  <si>
-    <t>Splice Case placement (UG/Vault - 96-864)</t>
-  </si>
-  <si>
-    <t>Splice Fiber (Aerial - Loose Tube)</t>
-  </si>
-  <si>
-    <t>per fiber</t>
-  </si>
-  <si>
-    <t>Splice Fiber (Aerial - Ribbon)</t>
-  </si>
-  <si>
-    <t>per ribbon</t>
-  </si>
-  <si>
-    <t>Splice Fiber (Aerial - Setup)</t>
-  </si>
-  <si>
-    <t>Splice Fiber (UG/Vault - Loose Tube)</t>
-  </si>
-  <si>
-    <t>Splice Fiber (UG/Vault - Ribbon)</t>
+    <t xml:space="preserve">Rod/Prove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snow Shoe placement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (Aerial - 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (Aerial - 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (Aerial - 48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (Aerial - 96-864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (UG/V - 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (UG/V - 24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (UG/V - 48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (UG/Vault - 1728)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Case placement (UG/Vault - 96-864)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Fiber (Aerial - Loose Tube)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per fiber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Fiber (Aerial - Ribbon)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">per ribbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Fiber (Aerial - Setup)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Fiber (UG/Vault - Loose Tube)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Splice Fiber (UG/Vault - Ribbon)</t>
   </si>
   <si>
     <t xml:space="preserve">per ribbon </t>
   </si>
   <si>
-    <t>Splice Fiber (UG/Vault - Setup)</t>
+    <t xml:space="preserve">Splice Fiber (UG/Vault - Setup)</t>
   </si>
   <si>
     <t xml:space="preserve">Squirrel guard removal </t>
@@ -358,45 +343,61 @@
     <t xml:space="preserve">Step removal on pole </t>
   </si>
   <si>
-    <t>Strand (place)</t>
-  </si>
-  <si>
-    <t>Traffic Management/Control Plans</t>
-  </si>
-  <si>
-    <t>Tree Trimming / Brushing</t>
-  </si>
-  <si>
-    <t>Trenching (includes soft surface restoration)</t>
-  </si>
-  <si>
-    <t>Vaults (HH) (place2x3)</t>
-  </si>
-  <si>
-    <t>Vaults (HH) (place3x5)</t>
-  </si>
-  <si>
-    <t>Total earned revenue by day</t>
-  </si>
-  <si>
-    <t>Total earned revenue</t>
+    <t xml:space="preserve">Strand (place)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traffic Management/Control Plans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tree Trimming / Brushing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trenching (includes soft surface restoration)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaults (HH) (place2x3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaults (HH) (place3x5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total earned revenue by day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total earned revenue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="165" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
@@ -406,7 +407,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -423,444 +424,173 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:ALM99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B100" activeCellId="0" sqref="B100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="999" width="8.5546875" style="1"/>
-    <col min="1000" max="1001" width="11.5546875" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="4" style="1" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1001" min="1000" style="1" width="11.56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -871,348 +601,348 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="8" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="8" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="8" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8">
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="8" t="n">
+        <v>65.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="8" t="n">
         <v>0.98</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="8" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="8" t="n">
         <v>750</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="8" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="8" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="8" t="n">
         <v>1750</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="8" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="8" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="8" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="8" t="n">
         <v>2.25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="8" t="n">
         <v>2.6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="8" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="8" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="8" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="8" t="n">
         <v>1020</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="8" t="n">
         <v>761</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="8" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="8" t="n">
         <v>2.65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="8" t="n">
         <v>0.98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="8" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="8" t="n">
         <v>1.96</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="8" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
@@ -1221,29 +951,29 @@
       </c>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="8" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="8" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="s">
         <v>51</v>
       </c>
@@ -1252,84 +982,84 @@
       </c>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="8" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
         <v>54</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="8">
+      <c r="C44" s="8" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="8" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="8" t="n">
         <v>1.25</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C47" s="8" t="n">
         <v>2.1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="8" t="n">
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="8">
+      <c r="C49" s="8" t="n">
         <v>43.56</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
@@ -1338,29 +1068,29 @@
       </c>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="8">
+      <c r="C51" s="8" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="8">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="8" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
         <v>64</v>
       </c>
@@ -1369,469 +1099,469 @@
       </c>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="8" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="8">
+      <c r="C55" s="8" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="8" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="8">
+      <c r="C57" s="8" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="8" t="n">
         <v>1450</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="8">
+      <c r="C59" s="8" t="n">
         <v>2142</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="8">
+      <c r="C60" s="8" t="n">
         <v>0.12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="8">
+      <c r="C61" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="8" t="n">
         <v>1.9</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C63" s="8">
+      <c r="C63" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="8" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="8" t="n">
         <v>62.5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C66" s="8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="8" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="8" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="8">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="8" t="n">
+        <v>5.1</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="8" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="8">
+      <c r="C71" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="8">
+      <c r="C72" s="8" t="n">
         <v>1.85</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C73" s="8" t="n">
         <v>275</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="8" t="n">
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="8">
+      <c r="C75" s="8" t="n">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C76" s="8">
+      <c r="C76" s="8" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C77" s="8">
+      <c r="C77" s="8" t="n">
         <v>455</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="8" t="n">
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="8">
+      <c r="C79" s="8" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="8" t="n">
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="8" t="n">
         <v>510</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="8" t="n">
         <v>510</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="8" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C84" s="8">
+      <c r="C84" s="8" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="8">
+      <c r="C85" s="8" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="8" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C87" s="8">
+      <c r="C87" s="8" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="8">
+      <c r="C88" s="8" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C89" s="8">
+      <c r="C89" s="8" t="n">
         <v>1.95</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C91" s="8">
+      <c r="C91" s="8" t="n">
         <v>2.75</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="8">
+      <c r="C92" s="8" t="n">
         <v>565</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C93" s="8">
+      <c r="C93" s="8" t="n">
         <v>3.45</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
         <v>110</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="8" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
         <v>111</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="8">
+      <c r="C95" s="8" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
         <v>112</v>
       </c>
@@ -1840,24 +1570,29 @@
       </c>
       <c r="C96" s="8"/>
     </row>
-    <row r="98" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
         <v>113</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
     </row>
-    <row r="99" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B99" s="12">
-        <f>SUM(C98:C98)</f>
+      <c r="B99" s="12" t="n">
+        <f aca="false">SUM(D98:Z98)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/HHS Operations/Templates/Template_ProjectTracker.xlsx
+++ b/HHS Operations/Templates/Template_ProjectTracker.xlsx
@@ -401,11 +401,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
+    <numFmt numFmtId="166" formatCode="#,##0"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -567,7 +568,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -583,11 +584,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -670,8 +671,8 @@
   </sheetPr>
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H86" activeCellId="0" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,7 +680,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.97"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="999" min="6" style="1" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1001" min="1000" style="1" width="11.57"/>
   </cols>
